--- a/ecoss4 Status- 20180430.xlsx
+++ b/ecoss4 Status- 20180430.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\telsysoss\Documents\OPM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pablogonzalez/Documents/PABLO/tmp/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7754E367-0771-BC4F-A281-3E8AC34C9DAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33780" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Configuration" sheetId="2" r:id="rId1"/>
@@ -261,7 +262,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1208,32 +1209,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" customWidth="1"/>
-    <col min="6" max="6" width="26.42578125" customWidth="1"/>
-    <col min="7" max="7" width="26.7109375" customWidth="1"/>
-    <col min="8" max="8" width="26.5703125" customWidth="1"/>
+    <col min="1" max="1" width="2.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+    <col min="6" max="6" width="26.5" customWidth="1"/>
+    <col min="7" max="7" width="26.6640625" customWidth="1"/>
+    <col min="8" max="8" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="36" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
         <v>30</v>
       </c>
@@ -1256,7 +1257,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
         <v>13</v>
       </c>
@@ -1279,7 +1280,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1302,7 +1303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1325,7 +1326,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>31</v>
       </c>
@@ -1348,7 +1349,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>32</v>
       </c>
@@ -1371,7 +1372,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
@@ -1386,7 +1387,7 @@
       <c r="G10" s="30"/>
       <c r="H10" s="30"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" s="4"/>
       <c r="C11" s="20" t="s">
         <v>6</v>
@@ -1401,7 +1402,7 @@
       <c r="G11" s="25"/>
       <c r="H11" s="26"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" s="4"/>
       <c r="C12" s="20"/>
       <c r="D12" s="21"/>
@@ -1412,7 +1413,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" s="4"/>
       <c r="C13" s="25"/>
       <c r="D13" s="24"/>
@@ -1427,7 +1428,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" s="4"/>
       <c r="C14" s="25"/>
       <c r="D14" s="24"/>
@@ -1442,7 +1443,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" s="4"/>
       <c r="C15" s="26"/>
       <c r="D15" s="24"/>
@@ -1457,7 +1458,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" s="4"/>
       <c r="C16" s="23" t="s">
         <v>10</v>
@@ -1468,7 +1469,7 @@
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="4"/>
       <c r="C17" s="23" t="s">
         <v>8</v>
@@ -1479,7 +1480,7 @@
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="4"/>
       <c r="C18" s="23" t="s">
         <v>19</v>
@@ -1490,7 +1491,7 @@
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" s="4"/>
       <c r="C19" s="23" t="s">
         <v>9</v>
@@ -1501,7 +1502,7 @@
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="4"/>
       <c r="C20" s="23" t="s">
         <v>20</v>
@@ -1512,7 +1513,7 @@
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="4"/>
       <c r="C21" s="26" t="s">
         <v>21</v>
@@ -1523,7 +1524,7 @@
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
     </row>
-    <row r="22" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
       <c r="C22" s="27" t="s">
         <v>22</v>
@@ -1534,7 +1535,7 @@
       <c r="G22" s="29"/>
       <c r="H22" s="29"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
         <v>23</v>
       </c>
@@ -1551,7 +1552,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B24" s="4"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -1566,7 +1567,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
       <c r="C25" s="29"/>
       <c r="D25" s="29"/>
@@ -1586,32 +1587,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="1" max="1" width="2.83203125" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="50.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.42578125" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" customWidth="1"/>
-    <col min="9" max="9" width="26.5703125" customWidth="1"/>
+    <col min="6" max="6" width="50.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.5" customWidth="1"/>
+    <col min="8" max="8" width="26.6640625" customWidth="1"/>
+    <col min="9" max="9" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="36" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="2:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="50" t="s">
         <v>48</v>
       </c>
@@ -1626,7 +1627,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="54" t="s">
         <v>41</v>
       </c>
@@ -1637,9 +1638,11 @@
       <c r="E3" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="55"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="54"/>
       <c r="C4" s="39" t="s">
         <v>58</v>
@@ -1648,9 +1651,11 @@
       <c r="E4" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="55"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F4" s="55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="56"/>
       <c r="C5" s="39" t="s">
         <v>59</v>
@@ -1659,9 +1664,11 @@
       <c r="E5" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="55"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F5" s="55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="57" t="s">
         <v>42</v>
       </c>
@@ -1672,7 +1679,7 @@
       <c r="E6" s="43"/>
       <c r="F6" s="55"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" s="54"/>
       <c r="C7" s="39" t="s">
         <v>54</v>
@@ -1681,7 +1688,7 @@
       <c r="E7" s="48"/>
       <c r="F7" s="58"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" s="56"/>
       <c r="C8" s="39" t="s">
         <v>55</v>
@@ -1690,7 +1697,7 @@
       <c r="E8" s="48"/>
       <c r="F8" s="58"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="57" t="s">
         <v>43</v>
       </c>
@@ -1707,7 +1714,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" s="54"/>
       <c r="C10" s="41"/>
       <c r="D10" s="37" t="s">
@@ -1720,7 +1727,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" s="54"/>
       <c r="C11" s="41"/>
       <c r="D11" s="37" t="s">
@@ -1733,7 +1740,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" s="54"/>
       <c r="C12" s="41"/>
       <c r="D12" s="37" t="s">
@@ -1746,7 +1753,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" s="54"/>
       <c r="C13" s="41"/>
       <c r="D13" s="37" t="s">
@@ -1759,7 +1766,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" s="54"/>
       <c r="C14" s="41"/>
       <c r="D14" s="37" t="s">
@@ -1772,7 +1779,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="54"/>
       <c r="C15" s="38"/>
       <c r="D15" s="37" t="s">
@@ -1781,7 +1788,7 @@
       <c r="E15" s="43"/>
       <c r="F15" s="55"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" s="54"/>
       <c r="C16" s="39" t="s">
         <v>54</v>
@@ -1790,7 +1797,7 @@
       <c r="E16" s="48"/>
       <c r="F16" s="58"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="56"/>
       <c r="C17" s="39" t="s">
         <v>55</v>
@@ -1799,7 +1806,7 @@
       <c r="E17" s="48"/>
       <c r="F17" s="58"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="57" t="s">
         <v>44</v>
       </c>
@@ -1812,7 +1819,7 @@
       <c r="E18" s="43"/>
       <c r="F18" s="55"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="54"/>
       <c r="C19" s="41"/>
       <c r="D19" s="37" t="s">
@@ -1821,7 +1828,7 @@
       <c r="E19" s="43"/>
       <c r="F19" s="55"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="54"/>
       <c r="C20" s="41"/>
       <c r="D20" s="37" t="s">
@@ -1830,7 +1837,7 @@
       <c r="E20" s="43"/>
       <c r="F20" s="55"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="54"/>
       <c r="C21" s="38"/>
       <c r="D21" s="37" t="s">
@@ -1839,7 +1846,7 @@
       <c r="E21" s="43"/>
       <c r="F21" s="55"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="54"/>
       <c r="C22" s="59" t="s">
         <v>54</v>
@@ -1848,7 +1855,7 @@
       <c r="E22" s="48"/>
       <c r="F22" s="58"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="56"/>
       <c r="C23" s="59" t="s">
         <v>55</v>
@@ -1857,7 +1864,7 @@
       <c r="E23" s="48"/>
       <c r="F23" s="58"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="57" t="s">
         <v>45</v>
       </c>
@@ -1872,7 +1879,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="54"/>
       <c r="C25" s="59" t="s">
         <v>54</v>
@@ -1881,7 +1888,7 @@
       <c r="E25" s="48"/>
       <c r="F25" s="58"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="56"/>
       <c r="C26" s="59" t="s">
         <v>55</v>
@@ -1890,7 +1897,7 @@
       <c r="E26" s="48"/>
       <c r="F26" s="58"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="57" t="s">
         <v>46</v>
       </c>
@@ -1903,7 +1910,7 @@
       <c r="E27" s="43"/>
       <c r="F27" s="55"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" s="54"/>
       <c r="C28" s="41"/>
       <c r="D28" s="37" t="s">
@@ -1912,7 +1919,7 @@
       <c r="E28" s="43"/>
       <c r="F28" s="55"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="54"/>
       <c r="C29" s="41"/>
       <c r="D29" s="37" t="s">
@@ -1921,7 +1928,7 @@
       <c r="E29" s="43"/>
       <c r="F29" s="55"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" s="54"/>
       <c r="C30" s="38"/>
       <c r="D30" s="37" t="s">
@@ -1930,7 +1937,7 @@
       <c r="E30" s="43"/>
       <c r="F30" s="55"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" s="54"/>
       <c r="C31" s="59" t="s">
         <v>54</v>
@@ -1939,7 +1946,7 @@
       <c r="E31" s="48"/>
       <c r="F31" s="58"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" s="56"/>
       <c r="C32" s="59" t="s">
         <v>55</v>
@@ -1948,7 +1955,7 @@
       <c r="E32" s="48"/>
       <c r="F32" s="58"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" s="57" t="s">
         <v>47</v>
       </c>
@@ -1961,7 +1968,7 @@
       <c r="E33" s="43"/>
       <c r="F33" s="55"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" s="54"/>
       <c r="C34" s="41"/>
       <c r="D34" s="37" t="s">
@@ -1970,7 +1977,7 @@
       <c r="E34" s="46"/>
       <c r="F34" s="55"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" s="54"/>
       <c r="C35" s="41"/>
       <c r="D35" s="37" t="s">
@@ -1979,7 +1986,7 @@
       <c r="E35" s="46"/>
       <c r="F35" s="55"/>
     </row>
-    <row r="36" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="54"/>
       <c r="C36" s="38"/>
       <c r="D36" s="37" t="s">
@@ -1988,7 +1995,7 @@
       <c r="E36" s="46"/>
       <c r="F36" s="55"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" s="54"/>
       <c r="C37" s="39" t="s">
         <v>54</v>
@@ -1997,7 +2004,7 @@
       <c r="E37" s="49"/>
       <c r="F37" s="58"/>
     </row>
-    <row r="38" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="60"/>
       <c r="C38" s="61" t="s">
         <v>55</v>

--- a/ecoss4 Status- 20180430.xlsx
+++ b/ecoss4 Status- 20180430.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pablogonzalez/Documents/PABLO/tmp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7754E367-0771-BC4F-A281-3E8AC34C9DAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CC0E29-CC2A-1D4E-AD41-195C288DD707}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33780" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -945,6 +945,197 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1579711</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>143221</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1580071</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>143581</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{675AEE2E-6CB6-2349-8CAF-596219B46973}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8049240" y="890280"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{675AEE2E-6CB6-2349-8CAF-596219B46973}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8040240" y="881640"/>
+              <a:ext cx="18000" cy="18000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>278311</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>367351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3687871</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>165541</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="3" name="Entrada de lápiz 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB1B7798-DB2E-F54F-B990-76553A0727CE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6747840" y="740880"/>
+            <a:ext cx="3409560" cy="171720"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="3" name="Entrada de lápiz 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB1B7798-DB2E-F54F-B990-76553A0727CE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6739200" y="732240"/>
+              <a:ext cx="3427200" cy="189360"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2020-02-19T20:52:36.668"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 24575,'0'0'0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2020-02-19T20:52:39.980"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4320 361 24575,'96'0'0,"0"0"0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,2 1 0,1-1 0,2 0 0,1 0 0,2-1-1093,-13-1 1,2 1 0,1-1 0,0 0-1,3-1 1,0 1 0,3-2 0,1 1-1,3-1 1075,-18 0 0,5 0 0,1-1 1,3 1-1,1-2 0,1 1 0,0-1 1,0 1-1,-2-1 0,-1 1 0,-3-1 1,-3 1-1,-4-1-316,21 0 1,-4-1 0,-4 1 0,-2 0 0,-2-1 0,0 1-1,2-1 1,1-1 333,-5 1 0,6-1 0,1 0 0,1 0 0,-3-1 0,-4 1 0,-6 1 0,-10 0 0,-10 2 0,49-4 0,-36 2 2131,-42 2-2131,-124 2 0,19-1 0,-7-1 0,-19 2 0,-7-1-514,26 0 1,-2 0 0,-5-1 513,3-2 0,-6 0 0,-1-1 0,1 0 0,3 2 0,-1 1 0,1-1 0,1 0 0,0-2 0,0 0 0,3 0 0,6 2 1677,-28-1 1,15 2-1678,7 3 5590,64 6-5590,60 9 0,44 13 0,-17-10 0,7 1-755,13 1 1,5-1 754,-23-6 0,3-1 0,0-1 0,1-2 0,0 0 0,-2-1 0,-6 1 0,-1 0 0,-3-2 1457,19 2 0,-8-1-1457,17 5 0,-45-7 0,-45 0 0,-40-2 0,-24 5 1787,-14 0-1787,7 2 0,11-1 0,22-2 0,12-1 0,16-3 0,23 2 0,8 1 0,7 0 0,-10-1 0,-14-2 0,-55 5 0,5 0 0,-22 6 0,27-3 0,24-4 0,27 3 0,33 5 0,6-3 0,-5 1 0,-35-7 0,-44-2 0,6 0 0,-8 1 0,23-1 0,15 3 0,8 1 0,3 1 0,3 0 0,-12-4 0,-44 12 0,14-11 0,-22 10 0,55-23 0,11 2 0,17-9 0,-13 7 0,-12 1 0,-19 5 0,-70-5 0,22 4 0,-4-1 0,-14 1 0,-4 0-374,-6-2 1,0 1 373,9 3 0,1-1 0,0-2 0,-1 0 0,1 0 0,3 1 0,-25-4 0,29 3 0,17 1 0,2 2 0,-18 1 0,-31 0 747,8 0-747,32 0 0,-2 0 0,-42 2 0,17 0 0,-1 5 0,29-4 0,6 2 0,3-3 0,7 2 0,-22 2 0,-20 0 0,-19 1 0,47-4 0,-1 1 0,-4-1 0,0 0 0,1 0 0,-2-1 0,-7-1 0,-2 0 0,-6-1 0,-2 0-386,-5 0 0,-1 0 386,2-1 0,-1 0 0,-8 0 0,0 1 0,1-1 0,-3-1-458,21 0 0,-3 0 1,1 0 457,-25 0 0,1 0 0,5-2 0,5 1 0,23 2 0,4 1 0,-37 3 0,22-1 0,-6 2 718,12-3-718,9 2 1427,8-2-1427,10 2 0,-1-2 0,7 2 0,-9-3 0,-4 4 0,-17-4 0,-25 5 0,39-5 0,-3 0 0,-9 1 0,-4 0-603,-12 0 1,-4-2 602,-13 2 0,-5-2-545,25 0 1,-3 0 0,1 0 544,3 1 0,1 0 0,2-1 0,-24-1 0,4 1-58,21 2 1,5 0 57,10 0 0,3 1 0,-45 3 0,-3 0 1096,11-2-1096,20 1 1724,21-4-1724,14 3 133,-1 1-133,-3 0 0,3 2 0,7-4 0,2 1 0,4-3 0,-12 4 0,-4-2 0,-9 2 0,2-2 0,3 1 0,5-1 0,2 0 0,5 0 0,2-2 0,-6 0 0,-4 0 0,-28 0 0,-22-3 0,35 1 0,-1-1 0,-3 1 0,-1 1 0,5-3 0,1 1 0,-45-2 0,5-1 0,11-1 0,10 1 0,14 1 0,16-1 0,-3 2 0,-11-2 0,-15-1 0,-11-3 0,10 3 0,18 0 0,19 5 0,13 1 0,5 1 0,5 0 0,-3 0 0,8 0 0,0 0 0,5 0 0,4 0 0</inkml:trace>
+</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1591,7 +1782,7 @@
   <dimension ref="B1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2016,5 +2207,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ecoss4 Status- 20180430.xlsx
+++ b/ecoss4 Status- 20180430.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pablogonzalez/Documents/PABLO/tmp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CC0E29-CC2A-1D4E-AD41-195C288DD707}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960B79F0-0DFC-2843-BB5A-88278E87DED8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33780" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -263,7 +263,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,6 +283,13 @@
       <b/>
       <sz val="20"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -785,7 +792,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -930,6 +937,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -962,8 +971,8 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>143581</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
@@ -982,7 +991,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="2" name="Entrada de lápiz 1">
@@ -1027,8 +1036,8 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>165541</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="3" name="Entrada de lápiz 2">
@@ -1047,7 +1056,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="3" name="Entrada de lápiz 2">
@@ -1782,7 +1791,7 @@
   <dimension ref="B1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1829,7 +1838,7 @@
       <c r="E3" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="64">
         <v>1</v>
       </c>
     </row>
@@ -1842,7 +1851,7 @@
       <c r="E4" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="55">
+      <c r="F4" s="65">
         <v>2</v>
       </c>
     </row>

--- a/ecoss4 Status- 20180430.xlsx
+++ b/ecoss4 Status- 20180430.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pablogonzalez/Documents/PABLO/tmp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960B79F0-0DFC-2843-BB5A-88278E87DED8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88DAF080-572A-BF46-BEB7-9EE946DDD1EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33780" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -295,7 +295,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -326,6 +326,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="36">
     <border>
@@ -792,7 +798,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -939,6 +945,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1791,7 +1798,7 @@
   <dimension ref="B1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1864,7 +1871,7 @@
       <c r="E5" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="55">
+      <c r="F5" s="66">
         <v>3</v>
       </c>
     </row>
